--- a/code/index_keywords_Estimation.xlsx
+++ b/code/index_keywords_Estimation.xlsx
@@ -47,49 +47,49 @@
     <t xml:space="preserve">MLE-KS</t>
   </si>
   <si>
-    <t xml:space="preserve">1.941</t>
+    <t xml:space="preserve">2.401</t>
   </si>
   <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.013</t>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.037</t>
   </si>
   <si>
     <t xml:space="preserve">Bootstrapping</t>
   </si>
   <si>
-    <t xml:space="preserve">1.94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.072</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4047.928</t>
-  </si>
-  <si>
-    <t xml:space="preserve">619.59</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.006</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
+    <t xml:space="preserve">2.425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">172.879</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.793</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.49</t>
   </si>
 </sst>
 </file>
